--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="104">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,12 +40,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -58,184 +58,196 @@
     <t>warning</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>fear</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
+    <t>recession</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>recession</t>
+    <t>anxiety</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>anxiety</t>
+    <t>die</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>shame</t>
+    <t>panic</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>isolation</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>shortage</t>
+    <t>stop</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>strong</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friend</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>energy</t>
+    <t>giving</t>
   </si>
   <si>
     <t>increase</t>
@@ -244,61 +256,67 @@
     <t>hope</t>
   </si>
   <si>
-    <t>save</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>key</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>give</t>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>essential</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>health</t>
-  </si>
-  <si>
     <t>shopping</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>new</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>stock</t>
   </si>
   <si>
+    <t>social</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>san</t>
+  </si>
+  <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>san</t>
   </si>
   <si>
     <t>food</t>
@@ -665,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -673,10 +691,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -737,10 +755,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -755,16 +773,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -776,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -787,10 +805,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -805,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -826,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -834,13 +852,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9411764705882353</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -852,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -876,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -905,16 +923,16 @@
         <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -926,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -955,16 +973,16 @@
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -976,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1005,16 +1023,16 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8515625</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1026,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1034,13 +1052,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7328767123287672</v>
+        <v>0.7</v>
       </c>
       <c r="C9">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1052,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>0.8292682926829268</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L9">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="M9">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1076,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1105,16 +1123,16 @@
         <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>0.8098591549295775</v>
+        <v>0.825</v>
       </c>
       <c r="L10">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="M10">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1126,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1134,13 +1152,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.65</v>
+        <v>0.6883561643835616</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1152,19 +1170,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K11">
-        <v>0.8083333333333333</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L11">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="M11">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1176,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1184,13 +1202,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5769230769230769</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1202,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>0.8046875</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L12">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="M12">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1226,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1255,16 +1273,16 @@
         <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K13">
-        <v>0.803921568627451</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L13">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1276,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1284,13 +1302,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5384615384615384</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1302,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L14">
         <v>49</v>
       </c>
-      <c r="K14">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="L14">
-        <v>46</v>
-      </c>
       <c r="M14">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1326,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1334,13 +1352,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5333333333333333</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1352,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K15">
-        <v>0.7872340425531915</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1376,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1384,13 +1402,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4838709677419355</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1402,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1426,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1434,13 +1452,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4615384615384616</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1452,19 +1470,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K17">
-        <v>0.7735849056603774</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L17">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="M17">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1476,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1484,49 +1502,49 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4193548387096774</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>21</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18">
+        <v>0.7450980392156863</v>
+      </c>
+      <c r="L18">
+        <v>38</v>
+      </c>
+      <c r="M18">
+        <v>38</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>13</v>
-      </c>
-      <c r="D18">
-        <v>13</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>18</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18">
-        <v>0.7727272727272727</v>
-      </c>
-      <c r="L18">
-        <v>17</v>
-      </c>
-      <c r="M18">
-        <v>17</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1534,37 +1552,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4117647058823529</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>21</v>
       </c>
-      <c r="D19">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>30</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K19">
-        <v>0.746031746031746</v>
+        <v>0.74375</v>
       </c>
       <c r="L19">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="M19">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1576,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1584,13 +1602,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4054054054054054</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1602,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K20">
-        <v>0.70625</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L20">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M20">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1626,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1634,13 +1652,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3733333333333334</v>
+        <v>0.4228187919463087</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D21">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1652,19 +1670,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K21">
-        <v>0.648936170212766</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L21">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="M21">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1676,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1684,13 +1702,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3604651162790697</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C22">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1702,19 +1720,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>330</v>
+        <v>30</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K22">
-        <v>0.6458333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1726,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1734,13 +1752,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3422818791946309</v>
+        <v>0.3895348837209303</v>
       </c>
       <c r="C23">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="D23">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1752,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>98</v>
+        <v>315</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K23">
-        <v>0.64</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L23">
         <v>32</v>
@@ -1776,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1784,13 +1802,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3137254901960784</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1802,19 +1820,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K24">
-        <v>0.6388888888888888</v>
+        <v>0.6501305483028721</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>249</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>249</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1826,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1834,13 +1852,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3116883116883117</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1852,19 +1870,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K25">
-        <v>0.6161879895561357</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L25">
-        <v>236</v>
+        <v>17</v>
       </c>
       <c r="M25">
-        <v>236</v>
+        <v>17</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1876,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>147</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1884,13 +1902,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3050847457627119</v>
+        <v>0.3121693121693122</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1902,19 +1920,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K26">
-        <v>0.5911764705882353</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L26">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="M26">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1926,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>139</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1934,13 +1952,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2888888888888889</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1952,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="H27">
+        <v>36</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="K27">
-        <v>0.5833333333333334</v>
+        <v>0.62</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1976,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1984,13 +2002,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2804232804232804</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C28">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2002,19 +2020,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K28">
-        <v>0.559322033898305</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L28">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2026,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>130</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2034,13 +2052,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2203389830508475</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2052,19 +2070,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K29">
-        <v>0.5588235294117647</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2076,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2084,13 +2102,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1944444444444444</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="C30">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D30">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2102,19 +2120,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>203</v>
+        <v>57</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K30">
-        <v>0.5357142857142857</v>
+        <v>0.6</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2126,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2134,13 +2152,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1126005361930295</v>
+        <v>0.2182539682539683</v>
       </c>
       <c r="C31">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D31">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2152,487 +2170,535 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>331</v>
+        <v>197</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K31">
-        <v>0.5185185185185185</v>
+        <v>0.5823529411764706</v>
       </c>
       <c r="L31">
+        <v>198</v>
+      </c>
+      <c r="M31">
+        <v>198</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.2111111111111111</v>
+      </c>
+      <c r="C32">
+        <v>19</v>
+      </c>
+      <c r="D32">
+        <v>19</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>71</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32">
+        <v>0.5813953488372093</v>
+      </c>
+      <c r="L32">
+        <v>25</v>
+      </c>
+      <c r="M32">
+        <v>25</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>0.1152815013404826</v>
+      </c>
+      <c r="C33">
+        <v>43</v>
+      </c>
+      <c r="D33">
+        <v>43</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>330</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K33">
+        <v>0.5730337078651685</v>
+      </c>
+      <c r="L33">
+        <v>51</v>
+      </c>
+      <c r="M33">
+        <v>51</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="J34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K34">
+        <v>0.5728813559322034</v>
+      </c>
+      <c r="L34">
+        <v>169</v>
+      </c>
+      <c r="M34">
+        <v>169</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="J35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K35">
+        <v>0.55</v>
+      </c>
+      <c r="L35">
+        <v>22</v>
+      </c>
+      <c r="M35">
+        <v>22</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="J36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K36">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="L36">
+        <v>13</v>
+      </c>
+      <c r="M36">
+        <v>13</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="J37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K37">
+        <v>0.4811715481171548</v>
+      </c>
+      <c r="L37">
+        <v>115</v>
+      </c>
+      <c r="M37">
+        <v>115</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="J38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K38">
+        <v>0.4657534246575342</v>
+      </c>
+      <c r="L38">
+        <v>34</v>
+      </c>
+      <c r="M38">
+        <v>34</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="J39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K39">
+        <v>0.4375</v>
+      </c>
+      <c r="L39">
+        <v>28</v>
+      </c>
+      <c r="M39">
+        <v>28</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K40">
+        <v>0.4242424242424243</v>
+      </c>
+      <c r="L40">
         <v>14</v>
       </c>
-      <c r="M31">
+      <c r="M40">
         <v>14</v>
       </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="J41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K41">
+        <v>0.4230769230769231</v>
+      </c>
+      <c r="L41">
+        <v>33</v>
+      </c>
+      <c r="M41">
+        <v>33</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="J42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K42">
+        <v>0.4153846153846154</v>
+      </c>
+      <c r="L42">
+        <v>27</v>
+      </c>
+      <c r="M42">
+        <v>27</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="J43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K43">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="L43">
+        <v>16</v>
+      </c>
+      <c r="M43">
+        <v>16</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="J44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K44">
+        <v>0.360655737704918</v>
+      </c>
+      <c r="L44">
+        <v>22</v>
+      </c>
+      <c r="M44">
+        <v>22</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="J45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K45">
+        <v>0.3428571428571429</v>
+      </c>
+      <c r="L45">
+        <v>24</v>
+      </c>
+      <c r="M45">
+        <v>24</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="J46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K46">
+        <v>0.325</v>
+      </c>
+      <c r="L46">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K32">
-        <v>0.5168539325842697</v>
-      </c>
-      <c r="L32">
-        <v>46</v>
-      </c>
-      <c r="M32">
-        <v>46</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K33">
-        <v>0.5116279069767442</v>
-      </c>
-      <c r="L33">
-        <v>22</v>
-      </c>
-      <c r="M33">
-        <v>22</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K34">
-        <v>0.5111111111111111</v>
-      </c>
-      <c r="L34">
-        <v>23</v>
-      </c>
-      <c r="M34">
-        <v>23</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17">
-      <c r="J35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K35">
-        <v>0.4686192468619247</v>
-      </c>
-      <c r="L35">
-        <v>112</v>
-      </c>
-      <c r="M35">
-        <v>112</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K36">
-        <v>0.453125</v>
-      </c>
-      <c r="L36">
-        <v>29</v>
-      </c>
-      <c r="M36">
-        <v>29</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K37">
-        <v>0.4383561643835616</v>
-      </c>
-      <c r="L37">
-        <v>32</v>
-      </c>
-      <c r="M37">
-        <v>32</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K38">
-        <v>0.4</v>
-      </c>
-      <c r="L38">
-        <v>16</v>
-      </c>
-      <c r="M38">
-        <v>16</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K39">
-        <v>0.3974358974358974</v>
-      </c>
-      <c r="L39">
-        <v>31</v>
-      </c>
-      <c r="M39">
-        <v>31</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K40">
-        <v>0.3846153846153846</v>
-      </c>
-      <c r="L40">
-        <v>25</v>
-      </c>
-      <c r="M40">
-        <v>25</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K41">
-        <v>0.3714285714285714</v>
-      </c>
-      <c r="L41">
+      <c r="M46">
         <v>13</v>
       </c>
-      <c r="M41">
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K47">
+        <v>0.2765957446808511</v>
+      </c>
+      <c r="L47">
         <v>13</v>
       </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K42">
-        <v>0.35</v>
-      </c>
-      <c r="L42">
+      <c r="M47">
+        <v>13</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K48">
+        <v>0.1830985915492958</v>
+      </c>
+      <c r="L48">
+        <v>13</v>
+      </c>
+      <c r="M48">
         <v>14</v>
       </c>
-      <c r="M42">
-        <v>14</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
-      <c r="J43" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K43">
-        <v>0.3170731707317073</v>
-      </c>
-      <c r="L43">
-        <v>13</v>
-      </c>
-      <c r="M43">
-        <v>14</v>
-      </c>
-      <c r="N43">
+      <c r="N48">
         <v>0.93</v>
       </c>
-      <c r="O43">
+      <c r="O48">
         <v>0.06999999999999995</v>
       </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
-      <c r="J44" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K44">
-        <v>0.2978723404255319</v>
-      </c>
-      <c r="L44">
-        <v>14</v>
-      </c>
-      <c r="M44">
-        <v>14</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
-      <c r="J45" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K45">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L45">
-        <v>20</v>
-      </c>
-      <c r="M45">
-        <v>20</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
-      <c r="J46" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K46">
-        <v>0.2459016393442623</v>
-      </c>
-      <c r="L46">
-        <v>15</v>
-      </c>
-      <c r="M46">
-        <v>15</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="10:17">
-      <c r="J47" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K47">
-        <v>0.1220095693779904</v>
-      </c>
-      <c r="L47">
-        <v>51</v>
-      </c>
-      <c r="M47">
-        <v>51</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="48" spans="10:17">
-      <c r="J48" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K48">
-        <v>0.1145038167938931</v>
-      </c>
-      <c r="L48">
-        <v>15</v>
-      </c>
-      <c r="M48">
-        <v>15</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K49">
-        <v>0.09375</v>
+        <v>0.1526717557251908</v>
       </c>
       <c r="L49">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2644,21 +2710,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>377</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K50">
-        <v>0.07906976744186046</v>
+        <v>0.1181102362204724</v>
       </c>
       <c r="L50">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M50">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2670,21 +2736,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>198</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K51">
-        <v>0.0755813953488372</v>
+        <v>0.1076555023923445</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M51">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2696,21 +2762,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>159</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K52">
-        <v>0.07270693512304251</v>
+        <v>0.0985576923076923</v>
       </c>
       <c r="L52">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="M52">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2722,73 +2788,73 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>829</v>
+        <v>375</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K53">
-        <v>0.07009345794392523</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="L53">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M53">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N53">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K54">
-        <v>0.06116207951070336</v>
+        <v>0.08878504672897196</v>
       </c>
       <c r="L54">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M54">
         <v>20</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>307</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K55">
-        <v>0.048834628190899</v>
+        <v>0.06823266219239374</v>
       </c>
       <c r="L55">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="M55">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2800,21 +2866,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>857</v>
+        <v>833</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K56">
-        <v>0.04307692307692308</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="L56">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M56">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2826,73 +2892,73 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>622</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K57">
-        <v>0.03651685393258427</v>
+        <v>0.05652173913043478</v>
       </c>
       <c r="L57">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M57">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="N57">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>2058</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K58">
-        <v>0.03236994219653179</v>
+        <v>0.05327413984461709</v>
       </c>
       <c r="L58">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="M58">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N58">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>837</v>
+        <v>853</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K59">
-        <v>0.02880658436213992</v>
+        <v>0.0487012987012987</v>
       </c>
       <c r="L59">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M59">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2904,85 +2970,189 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>472</v>
+        <v>293</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K60">
-        <v>0.01756198347107438</v>
+        <v>0.04041570438799076</v>
       </c>
       <c r="L60">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M60">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>951</v>
+        <v>831</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K61">
-        <v>0.01581155211358503</v>
+        <v>0.04006163328197226</v>
       </c>
       <c r="L61">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="M61">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="N61">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="O61">
-        <v>0.14</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>3050</v>
+        <v>623</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K62">
-        <v>0.007207771858351614</v>
+        <v>0.0308641975308642</v>
       </c>
       <c r="L62">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M62">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N62">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>3168</v>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K63">
+        <v>0.02667290594291062</v>
+      </c>
+      <c r="L63">
+        <v>57</v>
+      </c>
+      <c r="M63">
+        <v>63</v>
+      </c>
+      <c r="N63">
+        <v>0.9</v>
+      </c>
+      <c r="O63">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K64">
+        <v>0.02068252326783868</v>
+      </c>
+      <c r="L64">
+        <v>20</v>
+      </c>
+      <c r="M64">
+        <v>21</v>
+      </c>
+      <c r="N64">
+        <v>0.95</v>
+      </c>
+      <c r="O64">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K65">
+        <v>0.01483392454047082</v>
+      </c>
+      <c r="L65">
+        <v>46</v>
+      </c>
+      <c r="M65">
+        <v>52</v>
+      </c>
+      <c r="N65">
+        <v>0.88</v>
+      </c>
+      <c r="O65">
+        <v>0.12</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K66">
+        <v>0.007514088916718848</v>
+      </c>
+      <c r="L66">
+        <v>24</v>
+      </c>
+      <c r="M66">
+        <v>31</v>
+      </c>
+      <c r="N66">
+        <v>0.77</v>
+      </c>
+      <c r="O66">
+        <v>0.23</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>3170</v>
       </c>
     </row>
   </sheetData>
